--- a/experiment_data/n_agents_data/agents_data.xlsx
+++ b/experiment_data/n_agents_data/agents_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="18">
   <si>
     <t>red_agents</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>blue_cib</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>killer word selected</t>
+  </si>
+  <si>
+    <t>cards finished</t>
   </si>
 </sst>
 </file>
@@ -476,6 +488,36 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
@@ -490,6 +532,36 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -504,6 +576,36 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>2.2</v>
+      </c>
+      <c r="G4">
+        <v>1.6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5">
@@ -518,6 +620,36 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>2.4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>0.6</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
@@ -532,6 +664,36 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>1.8</v>
+      </c>
+      <c r="G6">
+        <v>2.5</v>
+      </c>
+      <c r="H6">
+        <v>0.6</v>
+      </c>
+      <c r="I6">
+        <v>0.75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
@@ -546,6 +708,36 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>2.5</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
@@ -560,6 +752,36 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
@@ -574,6 +796,36 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
@@ -588,6 +840,36 @@
       <c r="D10" t="b">
         <v>0</v>
       </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
@@ -602,6 +884,36 @@
       <c r="D11" t="b">
         <v>0</v>
       </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
@@ -616,6 +928,36 @@
       <c r="D12" t="b">
         <v>0</v>
       </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>1.5</v>
+      </c>
+      <c r="G12">
+        <v>2.5</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
@@ -630,6 +972,36 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2.5</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0.5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -644,6 +1016,36 @@
       <c r="D14" t="b">
         <v>0</v>
       </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>2.4</v>
+      </c>
+      <c r="G14">
+        <v>1.8</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
@@ -658,6 +1060,36 @@
       <c r="D15" t="b">
         <v>0</v>
       </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+      <c r="G15">
+        <v>2.2</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
@@ -672,8 +1104,38 @@
       <c r="D16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>3</v>
       </c>
@@ -686,8 +1148,38 @@
       <c r="D17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G17">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>3</v>
       </c>
@@ -700,8 +1192,38 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>1.8</v>
+      </c>
+      <c r="H18">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I18">
+        <v>0.8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>3</v>
       </c>
@@ -714,8 +1236,38 @@
       <c r="D19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="G19">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>3</v>
       </c>
@@ -728,8 +1280,38 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>3</v>
       </c>
@@ -742,8 +1324,38 @@
       <c r="D21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>2.5</v>
+      </c>
+      <c r="G21">
+        <v>1.5</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>4</v>
       </c>
@@ -756,8 +1368,38 @@
       <c r="D22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="G22">
+        <v>2.2</v>
+      </c>
+      <c r="H22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>4</v>
       </c>
@@ -770,8 +1412,38 @@
       <c r="D23" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I23">
+        <v>0.8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>4</v>
       </c>
@@ -784,8 +1456,38 @@
       <c r="D24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="G24">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="H24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I24">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>4</v>
       </c>
@@ -798,8 +1500,38 @@
       <c r="D25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>4</v>
       </c>
@@ -812,8 +1544,38 @@
       <c r="D26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>5</v>
       </c>
@@ -826,8 +1588,38 @@
       <c r="D27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>5</v>
       </c>
@@ -840,8 +1632,38 @@
       <c r="D28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>2.25</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0.75</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>5</v>
       </c>
@@ -854,8 +1676,38 @@
       <c r="D29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2.75</v>
+      </c>
+      <c r="H29">
+        <v>0.75</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>5</v>
       </c>
@@ -868,8 +1720,38 @@
       <c r="D30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>1.8</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>5</v>
       </c>
@@ -882,8 +1764,38 @@
       <c r="D31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>1.8</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>1</v>
       </c>
@@ -896,8 +1808,38 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>1</v>
       </c>
@@ -910,8 +1852,38 @@
       <c r="D33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>1.25</v>
+      </c>
+      <c r="G33">
+        <v>1.75</v>
+      </c>
+      <c r="H33">
+        <v>0.75</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>1</v>
       </c>
@@ -924,8 +1896,38 @@
       <c r="D34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>1</v>
       </c>
@@ -938,8 +1940,38 @@
       <c r="D35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>2.25</v>
+      </c>
+      <c r="G35">
+        <v>2.5</v>
+      </c>
+      <c r="H35">
+        <v>0.75</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>1</v>
       </c>
@@ -952,8 +1984,38 @@
       <c r="D36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="H36">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="I36">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>1</v>
       </c>
@@ -966,8 +2028,38 @@
       <c r="D37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2.2</v>
+      </c>
+      <c r="H37">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I37">
+        <v>0.6</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>1</v>
       </c>
@@ -980,8 +2072,38 @@
       <c r="D38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>2.75</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0.75</v>
+      </c>
+      <c r="I38">
+        <v>0.75</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>1</v>
       </c>
@@ -994,8 +2116,38 @@
       <c r="D39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1008,8 +2160,38 @@
       <c r="D40" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G40">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H40">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I40">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1022,8 +2204,38 @@
       <c r="D41" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>2.25</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0.25</v>
+      </c>
+      <c r="I41">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1036,8 +2248,38 @@
       <c r="D42" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1050,8 +2292,38 @@
       <c r="D43" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
+        <v>2.4</v>
+      </c>
+      <c r="G43">
+        <v>1.75</v>
+      </c>
+      <c r="H43">
+        <v>0.8</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>4</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1064,8 +2336,38 @@
       <c r="D44" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>2.5</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1078,8 +2380,38 @@
       <c r="D45" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="G45">
+        <v>1.5</v>
+      </c>
+      <c r="H45">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I45">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45">
+        <v>6</v>
+      </c>
+      <c r="L45">
+        <v>6</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1092,8 +2424,38 @@
       <c r="D46" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46">
+        <v>2.5</v>
+      </c>
+      <c r="G46">
+        <v>1.75</v>
+      </c>
+      <c r="H46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46">
+        <v>4</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1106,8 +2468,38 @@
       <c r="D47" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I47">
+        <v>0.8</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1120,8 +2512,38 @@
       <c r="D48" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0.6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48">
+        <v>6</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1134,8 +2556,38 @@
       <c r="D49" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1148,8 +2600,38 @@
       <c r="D50" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>2.25</v>
+      </c>
+      <c r="G50">
+        <v>1.75</v>
+      </c>
+      <c r="H50">
+        <v>0.75</v>
+      </c>
+      <c r="I50">
+        <v>0.75</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50">
+        <v>4</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1162,8 +2644,38 @@
       <c r="D51" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>2.5</v>
+      </c>
+      <c r="G51">
+        <v>1.75</v>
+      </c>
+      <c r="H51">
+        <v>0.5</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1176,8 +2688,38 @@
       <c r="D52" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="G52">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H52">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52">
+        <v>7</v>
+      </c>
+      <c r="L52">
+        <v>6</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1190,8 +2732,38 @@
       <c r="D53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>0.8</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1204,8 +2776,38 @@
       <c r="D54" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I54">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1218,8 +2820,38 @@
       <c r="D55" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55">
+        <v>1.5</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>0.5</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1232,8 +2864,38 @@
       <c r="D56" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>2.2</v>
+      </c>
+      <c r="G56">
+        <v>1.2</v>
+      </c>
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56">
+        <v>0.8</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>5</v>
       </c>
@@ -1246,8 +2908,38 @@
       <c r="D57" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>5</v>
       </c>
@@ -1260,8 +2952,38 @@
       <c r="D58" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>2.25</v>
+      </c>
+      <c r="G58">
+        <v>2.75</v>
+      </c>
+      <c r="H58">
+        <v>0.75</v>
+      </c>
+      <c r="I58">
+        <v>0.75</v>
+      </c>
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>5</v>
       </c>
@@ -1274,8 +2996,38 @@
       <c r="D59" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1288,8 +3040,38 @@
       <c r="D60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60">
+        <v>2.2</v>
+      </c>
+      <c r="G60">
+        <v>1.5</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0.5</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>5</v>
       </c>
@@ -1302,8 +3084,38 @@
       <c r="D61" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61">
+        <v>2.5</v>
+      </c>
+      <c r="G61">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H61">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I61">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="L61">
+        <v>6</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1316,8 +3128,38 @@
       <c r="D62" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H62">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1330,8 +3172,38 @@
       <c r="D63" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63">
+        <v>1.75</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>0.5</v>
+      </c>
+      <c r="I63">
+        <v>0.75</v>
+      </c>
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63">
+        <v>4</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>1</v>
       </c>
@@ -1344,8 +3216,38 @@
       <c r="D64" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1358,8 +3260,38 @@
       <c r="D65" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65">
+        <v>2.5</v>
+      </c>
+      <c r="G65">
+        <v>2.2</v>
+      </c>
+      <c r="H65">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I65">
+        <v>0.6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65">
+        <v>6</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>1</v>
       </c>
@@ -1372,8 +3304,38 @@
       <c r="D66" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66">
+        <v>1.6</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>0.6</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66">
+        <v>5</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1386,8 +3348,38 @@
       <c r="D67" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>1.6</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>0.8</v>
+      </c>
+      <c r="I67">
+        <v>0.25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1400,8 +3392,38 @@
       <c r="D68" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68">
+        <v>2.5</v>
+      </c>
+      <c r="G68">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H68">
+        <v>0.5</v>
+      </c>
+      <c r="I68">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>1</v>
       </c>
@@ -1414,8 +3436,38 @@
       <c r="D69" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>1</v>
       </c>
@@ -1428,8 +3480,38 @@
       <c r="D70" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <v>0.5</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>1</v>
       </c>
@@ -1442,8 +3524,38 @@
       <c r="D71" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>2.8</v>
+      </c>
+      <c r="G71">
+        <v>1.5</v>
+      </c>
+      <c r="H71">
+        <v>0.4</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>2</v>
       </c>
@@ -1456,8 +3568,38 @@
       <c r="D72" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72">
+        <v>2.5</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>0.75</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72">
+        <v>4</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1470,8 +3612,38 @@
       <c r="D73" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>2.5</v>
+      </c>
+      <c r="G73">
+        <v>1.75</v>
+      </c>
+      <c r="H73">
+        <v>0.75</v>
+      </c>
+      <c r="I73">
+        <v>0.75</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+      <c r="K73">
+        <v>4</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1484,8 +3656,38 @@
       <c r="D74" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>2.5</v>
+      </c>
+      <c r="H74">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>2</v>
       </c>
@@ -1498,8 +3700,38 @@
       <c r="D75" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75">
+        <v>2.25</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>0.75</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>2</v>
       </c>
@@ -1512,8 +3744,38 @@
       <c r="D76" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="G76">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="H76">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I76">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76">
+        <v>6</v>
+      </c>
+      <c r="L76">
+        <v>6</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1526,8 +3788,38 @@
       <c r="D77" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>1.8</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0.8</v>
+      </c>
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>5</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1540,8 +3832,38 @@
       <c r="D78" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>2.8</v>
+      </c>
+      <c r="G78">
+        <v>2.6</v>
+      </c>
+      <c r="H78">
+        <v>0.6</v>
+      </c>
+      <c r="I78">
+        <v>0.4</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78">
+        <v>5</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1554,8 +3876,38 @@
       <c r="D79" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="H79">
+        <v>0.5</v>
+      </c>
+      <c r="I79">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79">
+        <v>6</v>
+      </c>
+      <c r="L79">
+        <v>6</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1568,8 +3920,38 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="G80">
+        <v>1.8</v>
+      </c>
+      <c r="H80">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I80">
+        <v>0.6</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80">
+        <v>6</v>
+      </c>
+      <c r="L80">
+        <v>5</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1582,8 +3964,38 @@
       <c r="D81" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2.8</v>
+      </c>
+      <c r="H81">
+        <v>0.8</v>
+      </c>
+      <c r="I81">
+        <v>0.2</v>
+      </c>
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>4</v>
       </c>
@@ -1596,8 +4008,38 @@
       <c r="D82" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82">
+        <v>1.6</v>
+      </c>
+      <c r="G82">
+        <v>1.6</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82">
+        <v>5</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1610,8 +4052,38 @@
       <c r="D83" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83">
+        <v>2.2</v>
+      </c>
+      <c r="G83">
+        <v>1.4</v>
+      </c>
+      <c r="H83">
+        <v>0.8</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83">
+        <v>5</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1624,8 +4096,38 @@
       <c r="D84" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84">
+        <v>2.75</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>4</v>
       </c>
@@ -1638,8 +4140,38 @@
       <c r="D85" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>2.4</v>
+      </c>
+      <c r="G85">
+        <v>2.25</v>
+      </c>
+      <c r="H85">
+        <v>0.6</v>
+      </c>
+      <c r="I85">
+        <v>0.75</v>
+      </c>
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1652,8 +4184,38 @@
       <c r="D86" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>2.5</v>
+      </c>
+      <c r="G86">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>3</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>5</v>
       </c>
@@ -1666,8 +4228,38 @@
       <c r="D87" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>5</v>
       </c>
@@ -1680,8 +4272,38 @@
       <c r="D88" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>2.5</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0.5</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>5</v>
       </c>
@@ -1694,8 +4316,38 @@
       <c r="D89" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>0.4</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>5</v>
       </c>
@@ -1708,8 +4360,38 @@
       <c r="D90" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G90">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>3</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>5</v>
       </c>
@@ -1722,8 +4404,38 @@
       <c r="D91" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91">
+        <v>1.8</v>
+      </c>
+      <c r="G91">
+        <v>1.4</v>
+      </c>
+      <c r="H91">
+        <v>0.8</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91">
+        <v>5</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>1</v>
       </c>
@@ -1736,8 +4448,38 @@
       <c r="D92" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>2.142857142857143</v>
+      </c>
+      <c r="H92">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I92">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92">
+        <v>7</v>
+      </c>
+      <c r="L92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>1</v>
       </c>
@@ -1750,8 +4492,38 @@
       <c r="D93" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>3</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1764,8 +4536,38 @@
       <c r="D94" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94">
+        <v>2.25</v>
+      </c>
+      <c r="G94">
+        <v>1.75</v>
+      </c>
+      <c r="H94">
+        <v>0.75</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>4</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>1</v>
       </c>
@@ -1778,8 +4580,38 @@
       <c r="D95" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>2.25</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>1</v>
       </c>
@@ -1792,8 +4624,38 @@
       <c r="D96" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>2.2</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>0.8</v>
+      </c>
+      <c r="I96">
+        <v>0.8</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96">
+        <v>5</v>
+      </c>
+      <c r="L96">
+        <v>5</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>1</v>
       </c>
@@ -1806,8 +4668,38 @@
       <c r="D97" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>2.4</v>
+      </c>
+      <c r="G97">
+        <v>1.8</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97">
+        <v>5</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>1</v>
       </c>
@@ -1820,8 +4712,38 @@
       <c r="D98" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98">
+        <v>1.8</v>
+      </c>
+      <c r="G98">
+        <v>1.8</v>
+      </c>
+      <c r="H98">
+        <v>0.8</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98">
+        <v>5</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>1</v>
       </c>
@@ -1834,8 +4756,38 @@
       <c r="D99" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="G99">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+      <c r="I99">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99">
+        <v>6</v>
+      </c>
+      <c r="L99">
+        <v>6</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>1</v>
       </c>
@@ -1848,8 +4800,38 @@
       <c r="D100" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>1.5</v>
+      </c>
+      <c r="G100">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>1</v>
       </c>
@@ -1862,8 +4844,38 @@
       <c r="D101" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101">
+        <v>2.75</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>2</v>
       </c>
@@ -1876,8 +4888,38 @@
       <c r="D102" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="G102">
+        <v>1.8</v>
+      </c>
+      <c r="H102">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="I102">
+        <v>0.8</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102">
+        <v>6</v>
+      </c>
+      <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>2</v>
       </c>
@@ -1890,8 +4932,38 @@
       <c r="D103" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>2.4</v>
+      </c>
+      <c r="G103">
+        <v>2.2</v>
+      </c>
+      <c r="H103">
+        <v>0.8</v>
+      </c>
+      <c r="I103">
+        <v>0.8</v>
+      </c>
+      <c r="J103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103">
+        <v>5</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>2</v>
       </c>
@@ -1904,8 +4976,38 @@
       <c r="D104" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1918,8 +5020,38 @@
       <c r="D105" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105">
+        <v>2.2</v>
+      </c>
+      <c r="G105">
+        <v>2.8</v>
+      </c>
+      <c r="H105">
+        <v>0.8</v>
+      </c>
+      <c r="I105">
+        <v>0.8</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105">
+        <v>5</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>2</v>
       </c>
@@ -1932,8 +5064,38 @@
       <c r="D106" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>2.2</v>
+      </c>
+      <c r="G106">
+        <v>1.8</v>
+      </c>
+      <c r="H106">
+        <v>0.6</v>
+      </c>
+      <c r="I106">
+        <v>0.8</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>3</v>
       </c>
@@ -1946,8 +5108,38 @@
       <c r="D107" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <v>0.5</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>3</v>
       </c>
@@ -1960,8 +5152,38 @@
       <c r="D108" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G108">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="H108">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>3</v>
       </c>
@@ -1974,8 +5196,38 @@
       <c r="D109" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>2.25</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="H109">
+        <v>0.25</v>
+      </c>
+      <c r="I109">
+        <v>0.75</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>3</v>
       </c>
@@ -1988,8 +5240,38 @@
       <c r="D110" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2002,8 +5284,38 @@
       <c r="D111" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <v>0.5</v>
+      </c>
+      <c r="I111">
+        <v>0.5</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>4</v>
       </c>
@@ -2016,8 +5328,38 @@
       <c r="D112" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I112">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+      <c r="L112">
+        <v>6</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>4</v>
       </c>
@@ -2030,8 +5372,38 @@
       <c r="D113" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G113">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="H113">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I113">
+        <v>0.5</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+      <c r="K113">
+        <v>6</v>
+      </c>
+      <c r="L113">
+        <v>6</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>4</v>
       </c>
@@ -2044,8 +5416,38 @@
       <c r="D114" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114">
+        <v>2.2</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>0.6</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>4</v>
       </c>
@@ -2058,8 +5460,38 @@
       <c r="D115" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>2.25</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115">
+        <v>5</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>4</v>
       </c>
@@ -2072,8 +5504,38 @@
       <c r="D116" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G116">
+        <v>1.4</v>
+      </c>
+      <c r="H116">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="I116">
+        <v>0.8</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+      <c r="K116">
+        <v>6</v>
+      </c>
+      <c r="L116">
+        <v>5</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2086,8 +5548,38 @@
       <c r="D117" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117">
+        <v>2.5</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>0.75</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2100,8 +5592,38 @@
       <c r="D118" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2114,8 +5636,38 @@
       <c r="D119" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>0.5</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2128,8 +5680,38 @@
       <c r="D120" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120">
+        <v>2.2</v>
+      </c>
+      <c r="G120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>0.75</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K120">
+        <v>5</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2140,6 +5722,36 @@
         <v>4</v>
       </c>
       <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>1.5</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
         <v>0</v>
       </c>
     </row>

--- a/experiment_data/n_agents_data/agents_data.xlsx
+++ b/experiment_data/n_agents_data/agents_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\Codenames Progetto PDE\Codenames-LLM\experiment_data\n_agents_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278A9BC-9F36-4088-94EC-0587A35A2F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8200B0-99FE-4113-95EC-43EE91589801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,13 +468,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
